--- a/data/trans_camb/P15_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15_4-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,54</t>
+          <t>28,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,31</t>
+          <t>25,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,43</t>
+          <t>20,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,74</t>
+          <t>19,78</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,46</t>
+          <t>23,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 0,45</t>
+          <t>-9,09; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 37,53</t>
+          <t>7,34; 62,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,85; 34,76</t>
+          <t>8,62; 42,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -0,09</t>
+          <t>0,0; 9,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,68</t>
+          <t>4,92; 24,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 25,32</t>
+          <t>11,51; 32,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -0,77</t>
+          <t>-2,78; 1,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 22,41</t>
+          <t>8,72; 41,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,27; 25,99</t>
+          <t>13,77; 33,09</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-72,58%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>314,37%</t>
+          <t>1614,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>378,25%</t>
+          <t>1432,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-78,43%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>217,36%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>575,36%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-74,59%</t>
+          <t>-7,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270,83%</t>
+          <t>2358,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>448,99%</t>
+          <t>2748,73%</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 104,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,41; 1347,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>98,85; 1201,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,27 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 1016,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>125,27; 2199,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-95,03; -3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,19; 857,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>192,9; 1017,21</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-10,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,09</t>
+          <t>17,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,72</t>
+          <t>-7,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,26</t>
+          <t>14,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,92</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,49</t>
+          <t>15,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,25; -2,23</t>
+          <t>-19,0; -1,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 17,42</t>
+          <t>-3,08; 16,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 25,41</t>
+          <t>6,96; 28,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -1,84</t>
+          <t>-14,76; -0,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 23,5</t>
+          <t>6,66; 22,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 23,47</t>
+          <t>5,13; 21,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -3,26</t>
+          <t>-14,66; -4,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 19,3</t>
+          <t>4,48; 16,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 22,7</t>
+          <t>9,14; 22,89</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-42,3%</t>
+          <t>-47,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>83,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-52,5%</t>
+          <t>-53,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>158,36%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>157,76%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-46,08%</t>
+          <t>-50,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>60,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>119,7%</t>
+          <t>88,84%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,12; -11,3</t>
+          <t>-70,38; -7,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,16; 109,69</t>
+          <t>-12,3; 96,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,3; 158,17</t>
+          <t>26,21; 175,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,32; -18,15</t>
+          <t>-77,02; -0,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,66; 274,72</t>
+          <t>31,73; 205,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,23; 279,12</t>
+          <t>26,81; 192,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,84; -26,09</t>
+          <t>-69,38; -26,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,04; 149,27</t>
+          <t>21,2; 115,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,66; 176,78</t>
+          <t>42,19; 156,13</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,19</t>
+          <t>19,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>28,83</t>
+          <t>28,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-8,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,55</t>
+          <t>25,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,84</t>
+          <t>27,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,08</t>
+          <t>-8,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,38</t>
+          <t>22,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,36</t>
+          <t>27,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 1,7</t>
+          <t>-18,47; -0,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,66; 31,5</t>
+          <t>7,69; 30,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,41; 37,34</t>
+          <t>16,79; 40,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,64; -2,88</t>
+          <t>-16,29; -1,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,37; 30,36</t>
+          <t>15,13; 35,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,02; 38,19</t>
+          <t>17,46; 37,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,38; -2,76</t>
+          <t>-14,22; -2,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,11; 28,19</t>
+          <t>14,93; 29,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,02; 35,16</t>
+          <t>20,24; 34,71</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-34,73%</t>
+          <t>-42,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>113,33%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>147,22%</t>
+          <t>142,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-47,13%</t>
+          <t>-46,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>115,96%</t>
+          <t>132,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>153,45%</t>
+          <t>144,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-41,39%</t>
+          <t>-45,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>114,73%</t>
+          <t>116,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>150,5%</t>
+          <t>143,8%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,9; 13,39</t>
+          <t>-70,69; 2,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,07; 198,05</t>
+          <t>30,87; 210,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>70,32; 232,21</t>
+          <t>63,08; 289,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,24; -16,86</t>
+          <t>-69,76; -8,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,33; 195,06</t>
+          <t>65,23; 243,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,69; 240,9</t>
+          <t>71,96; 258,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,55; -14,93</t>
+          <t>-64,46; -17,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>70,42; 171,64</t>
+          <t>63,58; 183,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>102,12; 215,27</t>
+          <t>85,57; 212,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,35</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 21,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,57; 27,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -3,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,28; 21,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,07; 25,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,93; 20,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,32; 24,91</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-41,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>128,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-50,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>135,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>167,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-45,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>112,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,28; -17,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>56,99; 142,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,57; 182,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,28; -29,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>86,05; 202,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>114,02; 244,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,79; -29,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>80,81; 156,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>108,94; 191,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-8,48</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>14,51</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22,5</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-7,01</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18,43</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19,74</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-7,7</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16,6</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; -2,98</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 23,7</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>14,47; 29,93</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; -2,86</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12,74; 24,03</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 25,71</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-11,13; -4,42</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11,83; 21,61</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>16,47; 25,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-46,78%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>80,04%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>124,15%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-48,57%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>127,64%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>136,75%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-47,67%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>102,78%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>131,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-64,8; -17,17</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>33,54; 153,0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>66,93; 196,75</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-66,72; -22,66</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>69,49; 197,13</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>81,21; 218,11</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-60,96; -31,26</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>65,49; 151,68</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>89,53; 182,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
